--- a/IuF/Investitionsrechnung.xlsx
+++ b/IuF/Investitionsrechnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temp\Repos\KLR-Cheats\IuF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51BB3D3-182F-4F92-8BFC-AA6628D3ACA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88EBD7-81A2-4730-A26A-3C04E5E92CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{E2C5DD0E-A325-4030-B204-9BADC53EB11C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E2C5DD0E-A325-4030-B204-9BADC53EB11C}"/>
   </bookViews>
   <sheets>
     <sheet name="Statische Investition" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -432,7 +432,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -444,12 +444,12 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="5"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="8">
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603BCFCB-903E-4865-A98D-1E47DB48D5AC}">
   <dimension ref="A2:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,9 +881,11 @@
         <v>31</v>
       </c>
       <c r="B11" s="10">
+        <f>(B3-B4)/B5</f>
         <v>250000</v>
       </c>
       <c r="C11" s="10">
+        <f>(C3-C4)/C5</f>
         <v>225000</v>
       </c>
     </row>
@@ -892,9 +894,11 @@
         <v>6</v>
       </c>
       <c r="B12" s="10">
+        <f>AVERAGE(B3,B4)*B6</f>
         <v>152000</v>
       </c>
       <c r="C12" s="10">
+        <f>AVERAGE(C3,C4)*C6</f>
         <v>116000</v>
       </c>
     </row>
@@ -903,9 +907,11 @@
         <v>7</v>
       </c>
       <c r="B13" s="10">
+        <f>(B9-(B7+B8+B11+B12))</f>
         <v>168000</v>
       </c>
       <c r="C13" s="10">
+        <f>(C9-(C7+C8+C11+C12))</f>
         <v>166000</v>
       </c>
     </row>
@@ -914,9 +920,11 @@
         <v>32</v>
       </c>
       <c r="B14" s="10">
+        <f>(B3+B4) / 2</f>
         <v>1900000</v>
       </c>
       <c r="C14" s="10">
+        <f>(C3+C4) / 2</f>
         <v>1450000</v>
       </c>
     </row>
@@ -925,9 +933,11 @@
         <v>33</v>
       </c>
       <c r="B15" s="8">
+        <f>(B13+B12)/B14 * 100</f>
         <v>16.842105263157894</v>
       </c>
       <c r="C15" s="8">
+        <f>(C13+C12)/C14 * 100</f>
         <v>19.448275862068964</v>
       </c>
     </row>
@@ -936,9 +946,11 @@
         <v>8</v>
       </c>
       <c r="B16" s="8">
+        <f>(B3-B4)/(B13+B11)</f>
         <v>8.3732057416267942</v>
       </c>
       <c r="C16" s="8">
+        <f>(C3-C4)/(C13+C11)</f>
         <v>6.9053708439897701</v>
       </c>
     </row>
@@ -951,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D30AFB-CC6C-4723-93A7-06232C920BB6}">
   <dimension ref="C2:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,23 +1191,23 @@
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <f>D5</f>
         <v>-30</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <f>D5+E5/(1+D$2)</f>
         <v>-10.952380952380953</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>D5+E5/(1+D$2)+F5/((1+D$2)^2)</f>
         <v>1.7460317460317452</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <f>D5+E5/(1+D$2)+F5/((1+D$2)^2)+G5/((1+D$2)^3)</f>
         <v>1.7460317460317452</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <f>D5+E5/(1+D$2)+F5/((1+D$2)^2)+G5/((1+D$2)^3)+H5/((1+D$2)^4)</f>
         <v>1.7460317460317452</v>
       </c>
@@ -1204,23 +1216,23 @@
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <f t="shared" ref="D15:D18" si="3">D6</f>
         <v>-70</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <f t="shared" ref="E15:E18" si="4">D6+E6/(1+D$2)</f>
         <v>-70</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <f t="shared" ref="F15:F18" si="5">D6+E6/(1+D$2)+F6/((1+D$2)^2)</f>
         <v>7.0975056689342324</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <f t="shared" ref="G15:G18" si="6">D6+E6/(1+D$2)+F6/((1+D$2)^2)+G6/((1+D$2)^3)</f>
         <v>7.0975056689342324</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <f t="shared" ref="H15:H18" si="7">D6+E6/(1+D$2)+F6/((1+D$2)^2)+G6/((1+D$2)^3)+H6/((1+D$2)^4)</f>
         <v>7.0975056689342324</v>
       </c>
@@ -1229,23 +1241,23 @@
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1254,23 +1266,23 @@
       <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1279,23 +1291,23 @@
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1311,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8641DF-3332-446A-90A7-BF169AF1F0F6}">
   <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1399,7 @@
         <v>120</v>
       </c>
       <c r="J5" s="3">
-        <f>H5*(1-J$3)+I5*J$3</f>
+        <f t="shared" ref="J5:J10" si="0">H5*(1-J$3)+I5*J$3</f>
         <v>84</v>
       </c>
     </row>
@@ -1411,15 +1423,15 @@
         <v>300</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:H10" si="0">MIN(C6:G6)</f>
+        <f t="shared" ref="H6:H10" si="1">MIN(C6:G6)</f>
         <v>-30</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" ref="I6:I10" si="1">MAX(C6:G6)</f>
+        <f t="shared" ref="I6:I10" si="2">MAX(C6:G6)</f>
         <v>300</v>
       </c>
       <c r="J6" s="3">
-        <f>H6*(1-J$3)+I6*J$3</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
@@ -1443,15 +1455,15 @@
         <v>60</v>
       </c>
       <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="J7" s="3">
-        <f>H7*(1-J$3)+I7*J$3</f>
         <v>198</v>
       </c>
     </row>
@@ -1475,15 +1487,15 @@
         <v>180</v>
       </c>
       <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="0"/>
-        <v>-60</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="J8" s="3">
-        <f>H8*(1-J$3)+I8*J$3</f>
         <v>36</v>
       </c>
     </row>
@@ -1507,15 +1519,15 @@
         <v>270</v>
       </c>
       <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="J9" s="3">
-        <f>H9*(1-J$3)+I9*J$3</f>
         <v>108</v>
       </c>
     </row>
@@ -1539,15 +1551,15 @@
         <v>120</v>
       </c>
       <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>-120</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>-120</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="J10" s="3">
-        <f>H10*(1-J$3)+I10*J$3</f>
         <v>-24</v>
       </c>
     </row>
@@ -1665,7 +1677,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3">
-        <f>SUM(C26:G26)</f>
+        <f t="shared" ref="H18:H23" si="3">SUM(C26:G26)</f>
         <v>9.8999999999999986</v>
       </c>
       <c r="I18" s="13">
@@ -1709,31 +1721,31 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3">
-        <f>SUM(C27:G27)</f>
+        <f t="shared" si="3"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" ref="I19:I23" si="2">SQRT(SUM(C35:G35))</f>
+        <f t="shared" ref="I19:I23" si="4">SQRT(SUM(C35:G35))</f>
         <v>3.8418745424597094</v>
       </c>
       <c r="J19" s="13">
-        <f t="shared" ref="J19:J23" si="3">H19-2*I19</f>
+        <f t="shared" ref="J19:J23" si="5">H19-2*I19</f>
         <v>0.51625091508058052</v>
       </c>
       <c r="K19" s="13">
-        <f t="shared" ref="K19:K23" si="4">H19-I19</f>
+        <f t="shared" ref="K19:K23" si="6">H19-I19</f>
         <v>4.3581254575402895</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" ref="L19:L23" si="5">H19</f>
+        <f t="shared" ref="L19:L23" si="7">H19</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" ref="M19:M23" si="6">H19+I19</f>
+        <f t="shared" ref="M19:M23" si="8">H19+I19</f>
         <v>12.041874542459709</v>
       </c>
       <c r="N19" s="13">
-        <f t="shared" ref="N19:N23" si="7">H19+2*I19</f>
+        <f t="shared" ref="N19:N23" si="9">H19+2*I19</f>
         <v>15.883749084919419</v>
       </c>
     </row>
@@ -1753,31 +1765,31 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3">
-        <f>SUM(C28:G28)</f>
+        <f t="shared" si="3"/>
         <v>5.4</v>
       </c>
       <c r="I20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0000000000000004</v>
       </c>
       <c r="K20" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.8000000000000007</v>
       </c>
     </row>
@@ -1791,31 +1803,31 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="3">
-        <f>SUM(C29:G29)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1829,31 +1841,31 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3">
-        <f>SUM(C30:G30)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K22" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M22" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1867,31 +1879,31 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3">
-        <f>SUM(C31:G31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K23" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1904,19 +1916,19 @@
         <v>3</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" ref="K24:N24" si="8">MATCH(MAX(K18:K23),K18:K23,0)</f>
+        <f t="shared" ref="K24:N24" si="10">MATCH(MAX(K18:K23),K18:K23,0)</f>
         <v>2</v>
       </c>
       <c r="L24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -1939,133 +1951,133 @@
     </row>
     <row r="26" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C26" s="8">
-        <f>C18*C$17</f>
+        <f t="shared" ref="C26:G31" si="11">C18*C$17</f>
         <v>-0.60000000000000009</v>
       </c>
       <c r="D26" s="8">
-        <f>D18*D$17</f>
+        <f t="shared" si="11"/>
         <v>5.3999999999999995</v>
       </c>
       <c r="E26" s="8">
-        <f>E18*E$17</f>
+        <f t="shared" si="11"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="F26" s="8">
-        <f>F18*F$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G26" s="8">
-        <f>G18*G$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" s="8">
-        <f>C19*C$17</f>
+        <f t="shared" si="11"/>
         <v>-0.2</v>
       </c>
       <c r="D27" s="8">
-        <f>D19*D$17</f>
+        <f t="shared" si="11"/>
         <v>4.8</v>
       </c>
       <c r="E27" s="8">
-        <f>E19*E$17</f>
+        <f t="shared" si="11"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="F27" s="8">
-        <f>F19*F$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <f>G19*G$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="8">
-        <f>C20*C$17</f>
+        <f t="shared" si="11"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="D28" s="8">
-        <f>D20*D$17</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="E28" s="8">
-        <f>E20*E$17</f>
+        <f t="shared" si="11"/>
         <v>2.1</v>
       </c>
       <c r="F28" s="8">
-        <f>F20*F$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G28" s="8">
-        <f>G20*G$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" s="8">
-        <f>C21*C$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D29" s="8">
-        <f>D21*D$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E29" s="8">
-        <f>E21*E$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <f>F21*F$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G29" s="8">
-        <f>G21*G$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="8">
-        <f>C22*C$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D30" s="8">
-        <f>D22*D$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <f>E22*E$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F30" s="8">
-        <f>F22*F$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G30" s="8">
-        <f>G22*G$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="8">
-        <f>C23*C$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D31" s="8">
-        <f>D23*D$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E31" s="8">
-        <f>E23*E$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <f>F23*F$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G31" s="8">
-        <f>G23*G$17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2092,129 +2104,129 @@
         <v>25.280999999999995</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" ref="D34:G34" si="9">(D18-$H18)^2*D$17</f>
+        <f t="shared" ref="D34:G34" si="12">(D18-$H18)^2*D$17</f>
         <v>0.48599999999999843</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>15.123000000000005</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="8">
-        <f t="shared" ref="C35:G39" si="10">(C19-$H19)^2*C$17</f>
+        <f t="shared" ref="C35:G39" si="13">(C19-$H19)^2*C$17</f>
         <v>10.404</v>
       </c>
       <c r="D35" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.399999999999983E-2</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.3320000000000016</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.57600000000000018</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.6000000000000169E-2</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76799999999999957</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
